--- a/src/main/resources/excel/demand.xlsx
+++ b/src/main/resources/excel/demand.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>需求编码</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>预估工作量(时)</t>
-  </si>
-  <si>
-    <t>预报工工时</t>
   </si>
   <si>
     <t>已报工工时</t>
@@ -45,10 +42,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -72,17 +69,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -94,8 +105,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,45 +115,83 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,60 +206,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,37 +233,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,31 +365,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,37 +383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,67 +395,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,8 +445,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,21 +514,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -524,171 +539,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1028,25 +1025,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="16.3333333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.1666666666667" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.1666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.1666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1068,11 +1064,8 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -1080,9 +1073,8 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -1090,9 +1082,8 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
@@ -1100,9 +1091,8 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
@@ -1110,9 +1100,8 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -1120,9 +1109,8 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -1130,9 +1118,8 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -1140,9 +1127,8 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -1150,9 +1136,8 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -1160,9 +1145,8 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
@@ -1170,9 +1154,8 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
@@ -1180,9 +1163,8 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -1190,9 +1172,8 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -1200,9 +1181,8 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8">
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -1210,9 +1190,8 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -1220,9 +1199,8 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -1230,9 +1208,8 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -1240,9 +1217,8 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8">
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
@@ -1250,9 +1226,8 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8">
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -1260,9 +1235,8 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8">
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
@@ -1270,9 +1244,8 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8">
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
@@ -1280,9 +1253,8 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8">
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -1290,9 +1262,8 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8">
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
@@ -1300,9 +1271,8 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8">
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
@@ -1310,7 +1280,6 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
